--- a/Hasil_AHP.xlsx
+++ b/Hasil_AHP.xlsx
@@ -6,10 +6,8 @@
     <sheet name="Matriks Kriteria" sheetId="1" r:id="rId1"/>
     <sheet name="Bobot Kriteria" sheetId="2" r:id="rId2"/>
     <sheet name="Matriks Alternatif 1" sheetId="3" r:id="rId3"/>
-    <sheet name="Matriks Alternatif 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Bobot Alternatif 1" sheetId="5" r:id="rId5"/>
-    <sheet name="Bobot Alternatif 2" sheetId="6" r:id="rId6"/>
-    <sheet name="Ranking Akhir" sheetId="7" r:id="rId7"/>
+    <sheet name="Bobot Alternatif 1" sheetId="4" r:id="rId4"/>
+    <sheet name="Ranking Akhir" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -403,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,44 +411,27 @@
         <v>Kriteria</v>
       </c>
       <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,30 +446,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.8</v>
+        <v>0.1581</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -497,45 +470,68 @@
       <c r="A1" t="str">
         <v>Alternatif</v>
       </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
+      <c r="B1" t="str">
+        <v>a</v>
+      </c>
+      <c r="C1" t="str">
+        <v>d</v>
+      </c>
+      <c r="D1" t="str">
+        <v>s</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="str">
+        <v>a</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" t="str">
+        <v>d</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>s</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,45 +540,44 @@
       <c r="A1" t="str">
         <v>Alternatif</v>
       </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
+      <c r="B1" t="str">
+        <v>Bobot</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="str">
+        <v>a</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.3333333333333333</v>
+        <v>0.6196</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" t="str">
+        <v>d</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>s</v>
+      </c>
+      <c r="B4">
+        <v>0.2243</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,113 +587,48 @@
         <v>Alternatif</v>
       </c>
       <c r="B1" t="str">
-        <v>Bobot</v>
+        <v>Skor Akhir</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Ranking</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
+        <v>a</v>
+      </c>
+      <c r="B2">
+        <v>0.6196</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>s</v>
+      </c>
+      <c r="B3">
+        <v>0.2243</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0.3333</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>d</v>
+      </c>
+      <c r="B4">
+        <v>0.156</v>
+      </c>
+      <c r="C4">
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.6667</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Alternatif</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Bobot</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Alternatif</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Skor Akhir</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Ranking</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.7333</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.2667</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>